--- a/Excel/Character.xlsx
+++ b/Excel/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnrealProject\GIT\CS_Wuxia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1396059A-C753-443A-AE71-7FD9458B13AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2AF6F5-32D1-4BDC-BD2E-42AC20ED7667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{202F0FC0-F526-4B20-8A3C-6F61FE6C9973}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{202F0FC0-F526-4B20-8A3C-6F61FE6C9973}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -400,20 +400,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>等等補字串ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>商人</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>DT</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>STName_10001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>STName_10002</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE43D24-01AD-4020-9362-8632B99653A1}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1112,7 +1113,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>51</v>
@@ -1182,7 +1183,7 @@
         <v>10001</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>84</v>
@@ -1208,13 +1209,13 @@
         <v>10002</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>84</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="21">
         <v>10</v>
@@ -1584,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96BBDE6-D433-4AAF-88A3-22EE32284F54}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
